--- a/public/data/soil/soil_table_kenya.xlsx
+++ b/public/data/soil/soil_table_kenya.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>253.8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11467.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.199</v>
+        <v>17.708</v>
       </c>
     </row>
     <row r="3">
@@ -1675,28 +1675,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>321.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3653.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29744.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.065</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>74.225</v>
+        <v>85.222</v>
       </c>
     </row>
     <row r="4">
@@ -1710,28 +1710,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>738.1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>153.9</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7054.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>45992.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.922</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.515</v>
+        <v>19.214</v>
       </c>
       <c r="K4" t="n">
-        <v>79.638</v>
+        <v>90.299</v>
       </c>
     </row>
     <row r="5">
@@ -1748,25 +1748,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>104.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38830.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>83.461</v>
+        <v>95.719</v>
       </c>
     </row>
     <row r="6">
@@ -1780,28 +1780,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>6891.6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11016.8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5407.3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27221.3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15.56</v>
+        <v>24.722</v>
       </c>
       <c r="I6" t="n">
-        <v>19.736</v>
+        <v>32.501</v>
       </c>
       <c r="J6" t="n">
-        <v>9.975</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>54.158</v>
+        <v>48.267</v>
       </c>
     </row>
     <row r="7">
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>48.4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36308.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.805</v>
+        <v>62.805</v>
       </c>
     </row>
     <row r="8">
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>419.4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>77825.6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1868,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>141.491</v>
+        <v>149.305</v>
       </c>
     </row>
     <row r="9">
@@ -1885,28 +1885,28 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>1399.7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7671.9</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11532.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>9.582</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.777</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.742</v>
+        <v>97.909</v>
       </c>
       <c r="K9" t="n">
-        <v>80.456</v>
+        <v>45.383</v>
       </c>
     </row>
     <row r="10">
@@ -1920,28 +1920,28 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>3411.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12117.6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9918.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.434</v>
+        <v>37.766</v>
       </c>
       <c r="I10" t="n">
-        <v>0.745</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>79.13</v>
+        <v>41.634</v>
       </c>
       <c r="K10" t="n">
-        <v>49.388</v>
+        <v>34.044</v>
       </c>
     </row>
     <row r="11">
@@ -1955,28 +1955,28 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>795.8</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>319.1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>26356.7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15653.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.009</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.649</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.461</v>
+        <v>164.642</v>
       </c>
       <c r="K11" t="n">
-        <v>73.455</v>
+        <v>35.812</v>
       </c>
     </row>
     <row r="12">
@@ -1990,28 +1990,28 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>4841.3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>13864.2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>615.6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24047.7</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.537</v>
+        <v>8.67</v>
       </c>
       <c r="I12" t="n">
-        <v>44.316</v>
+        <v>27.259</v>
       </c>
       <c r="J12" t="n">
-        <v>3.906</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>122.697</v>
+        <v>177.168</v>
       </c>
     </row>
     <row r="13">
@@ -2025,28 +2025,28 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>6446.4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>27805</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7025.3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21.52</v>
+        <v>51.298</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>145.715</v>
+        <v>127.151</v>
       </c>
       <c r="K13" t="n">
-        <v>43.528</v>
+        <v>61.364</v>
       </c>
     </row>
     <row r="14">
@@ -2060,25 +2060,25 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>5794.9</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23216.8</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>41.489</v>
+        <v>50.009</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>157.986</v>
+        <v>143.944</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2095,25 +2095,25 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>263.9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21390.7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2.341</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>144.749</v>
+        <v>111.353</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>6495.7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22885.6</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>46.116</v>
+        <v>50.108</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>128.268</v>
+        <v>164.832</v>
       </c>
       <c r="K16" t="n">
-        <v>0.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8434.3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8767.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>53.587</v>
+        <v>120.474</v>
       </c>
       <c r="K17" t="n">
-        <v>62.143</v>
+        <v>53.519</v>
       </c>
     </row>
     <row r="18">
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>26740.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>124.662</v>
+        <v>120.774</v>
       </c>
     </row>
     <row r="19">
@@ -2235,28 +2235,28 @@
         <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>63.2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6562.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>16812.8</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.866</v>
+        <v>88.54</v>
       </c>
       <c r="K19" t="n">
-        <v>83.856</v>
+        <v>29.346</v>
       </c>
     </row>
     <row r="20">
@@ -2270,28 +2270,28 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>10227.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>297.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33278.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4202.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.675</v>
+        <v>6.048</v>
       </c>
       <c r="I20" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.386</v>
+        <v>193.95</v>
       </c>
       <c r="K20" t="n">
-        <v>15.958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2305,25 +2305,25 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>116.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18468.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.903</v>
+        <v>94.449</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8133.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25040.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.701</v>
+        <v>53.29</v>
       </c>
       <c r="K22" t="n">
-        <v>151.085</v>
+        <v>164.806</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>22674.4</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.739</v>
+        <v>131.994</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>16447.8</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>95.053</v>
+        <v>54.77</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,28 +2445,28 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>45.3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2334.6</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7587.1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.558</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>41.636</v>
+        <v>44.768</v>
       </c>
     </row>
     <row r="26">
@@ -2480,25 +2480,25 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>10702.4</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10330.7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>71.023</v>
+        <v>48.047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>58.896</v>
+        <v>46.774</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2515,28 +2515,28 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>5953.9</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>264.8</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8703.5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4556.6</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30.298</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.487</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>38.83</v>
+        <v>99.584</v>
       </c>
       <c r="K27" t="n">
-        <v>23.894</v>
+        <v>31.857</v>
       </c>
     </row>
     <row r="28">
@@ -2550,25 +2550,25 @@
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>6555.8</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10055.1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.51</v>
+        <v>41.422</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.097</v>
+        <v>88.811</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2585,25 +2585,25 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>1004.9</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>18123.3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.151</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.922</v>
+        <v>153.343</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2620,25 +2620,25 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>1228.6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>19246.4</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.395</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>99.753</v>
+        <v>77.778</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2655,25 +2655,25 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>6846.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16834</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38.164</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>98.089</v>
+        <v>116.483</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2690,28 +2690,28 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>2074.1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10227</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>17030</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.34</v>
+        <v>10.671</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.221</v>
+        <v>40.451</v>
       </c>
       <c r="K32" t="n">
-        <v>43.12</v>
+        <v>60.095</v>
       </c>
     </row>
     <row r="33">
@@ -2725,28 +2725,28 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>6630.9</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8158.1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>32416.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>11.922</v>
+        <v>10.653</v>
       </c>
       <c r="I33" t="n">
-        <v>6.107</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>26.882</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>88.828</v>
+        <v>135.399</v>
       </c>
     </row>
     <row r="34">
@@ -2760,28 +2760,28 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>14954.8</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14681</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9839.8</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.599</v>
+        <v>18.277</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.384</v>
+        <v>64.347</v>
       </c>
       <c r="K34" t="n">
-        <v>30.909</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="35">
@@ -2795,28 +2795,28 @@
         <v>68</v>
       </c>
       <c r="D35" t="n">
-        <v>9570.8</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>20155.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>886.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23.552</v>
+        <v>53.989</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.047</v>
+        <v>70.846</v>
       </c>
       <c r="K35" t="n">
-        <v>1.577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2830,28 +2830,28 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>12191</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>10272</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4019.2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.819</v>
+        <v>100.054</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>66.4</v>
+        <v>95.862</v>
       </c>
       <c r="K36" t="n">
-        <v>12.027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>10347.7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>30799.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>32.145</v>
+        <v>16.083</v>
       </c>
       <c r="K37" t="n">
-        <v>61.766</v>
+        <v>57.755</v>
       </c>
     </row>
     <row r="38">
@@ -2906,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5794.4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>67974.4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16.045</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>120.539</v>
+        <v>149.254</v>
       </c>
     </row>
     <row r="39">
@@ -2935,28 +2935,28 @@
         <v>73</v>
       </c>
       <c r="D39" t="n">
-        <v>6934.9</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10838.1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1242.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>49.627</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.305</v>
+        <v>104.156</v>
       </c>
       <c r="K39" t="n">
-        <v>8.708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65860.8</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.651</v>
+        <v>119.178</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>116186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>163.04</v>
+        <v>176.72</v>
       </c>
     </row>
     <row r="42">
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>239643.1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>149.169</v>
+        <v>139.541</v>
       </c>
     </row>
     <row r="43">
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.598</v>
+        <v>34.114</v>
       </c>
     </row>
     <row r="44">
@@ -3110,28 +3110,28 @@
         <v>79</v>
       </c>
       <c r="D44" t="n">
-        <v>1141.8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2922.6</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1165.2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>128844.4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.102</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>151.837</v>
+        <v>148.692</v>
       </c>
     </row>
     <row r="45">
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>122228.3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>190.722</v>
+        <v>184.883</v>
       </c>
     </row>
     <row r="46">
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7311.3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6942.2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.275</v>
+        <v>28.553</v>
       </c>
       <c r="K46" t="n">
-        <v>29.511</v>
+        <v>24.525</v>
       </c>
     </row>
     <row r="47">
@@ -3215,28 +3215,28 @@
         <v>83</v>
       </c>
       <c r="D47" t="n">
-        <v>1435</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>19330.1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>751.7</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>96.465</v>
+        <v>201.748</v>
       </c>
       <c r="K47" t="n">
-        <v>2.893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>20503.2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>7.674</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>116.444</v>
+        <v>127.385</v>
       </c>
     </row>
     <row r="49">
@@ -3285,28 +3285,28 @@
         <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>6913.5</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>171.8</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>11794.7</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2192.1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>35.831</v>
+        <v>39.951</v>
       </c>
       <c r="I49" t="n">
-        <v>0.602</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>55.283</v>
+        <v>75.662</v>
       </c>
       <c r="K49" t="n">
-        <v>6.708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3323,25 +3323,25 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>72.6</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4271.4</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>15633.9</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>13.416</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>71.298</v>
+        <v>103.063</v>
       </c>
     </row>
     <row r="51">
@@ -3355,28 +3355,28 @@
         <v>87</v>
       </c>
       <c r="D51" t="n">
-        <v>417.9</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>42463.9</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>8667.1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.585</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>149.563</v>
+        <v>207.804</v>
       </c>
       <c r="K51" t="n">
-        <v>27.546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3390,28 +3390,28 @@
         <v>88</v>
       </c>
       <c r="D52" t="n">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>57.6</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>11153.6</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>6791</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>11.199</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>54.722</v>
+        <v>33.389</v>
       </c>
       <c r="K52" t="n">
-        <v>38.126</v>
+        <v>64.573</v>
       </c>
     </row>
     <row r="53">
@@ -3425,28 +3425,28 @@
         <v>89</v>
       </c>
       <c r="D53" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>89.6</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>12309.4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>16535</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.916</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>29.275</v>
+        <v>74.102</v>
       </c>
       <c r="K53" t="n">
-        <v>57.534</v>
+        <v>52.258</v>
       </c>
     </row>
     <row r="54">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>104.3</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>3532.9</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>22.224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>271515.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>64.162</v>
+        <v>58.122</v>
       </c>
     </row>
     <row r="56">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>172098.6</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>50.035</v>
+        <v>67.88</v>
       </c>
     </row>
     <row r="57">
@@ -3571,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1257.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>112468.6</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.212</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>119.032</v>
+        <v>117.844</v>
       </c>
     </row>
     <row r="58">
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>112250.6</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>110.747</v>
+        <v>114.517</v>
       </c>
     </row>
     <row r="59">
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>736.7</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>8429.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.208</v>
+        <v>38.3</v>
       </c>
       <c r="K59" t="n">
-        <v>36.934</v>
+        <v>41.844</v>
       </c>
     </row>
     <row r="60">
@@ -3673,25 +3673,25 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>6417.2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>157663.6</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>28.772</v>
+        <v>26.617</v>
       </c>
       <c r="K60" t="n">
-        <v>145.932</v>
+        <v>169.098</v>
       </c>
     </row>
     <row r="61">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>735.1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>172913.5</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>131.655</v>
+        <v>170.936</v>
       </c>
     </row>
     <row r="62">
@@ -3740,25 +3740,25 @@
         <v>101</v>
       </c>
       <c r="D62" t="n">
-        <v>8138.4</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>11917.3</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>53.693</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>83.73</v>
+        <v>181.19</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3775,25 +3775,25 @@
         <v>102</v>
       </c>
       <c r="D63" t="n">
-        <v>6584.9</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7579.7</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>36.942</v>
+        <v>127.174</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>59.835</v>
+        <v>64.762</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3810,25 +3810,25 @@
         <v>103</v>
       </c>
       <c r="D64" t="n">
-        <v>3686.3</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>11558</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>28.915</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>74.471</v>
+        <v>63.628</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>10577.3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>204.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>64.912</v>
+        <v>55.314</v>
       </c>
       <c r="K65" t="n">
-        <v>0.522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3880,25 +3880,25 @@
         <v>104</v>
       </c>
       <c r="D66" t="n">
-        <v>11279.7</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5059.3</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>63.481</v>
+        <v>61.996</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>25.007</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3915,28 +3915,28 @@
         <v>105</v>
       </c>
       <c r="D67" t="n">
-        <v>8898.1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>28635</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>68.2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>57.451</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>166.917</v>
+        <v>215.353</v>
       </c>
       <c r="K67" t="n">
-        <v>0.633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3950,28 +3950,28 @@
         <v>106</v>
       </c>
       <c r="D68" t="n">
-        <v>4420</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>20196.8</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>62.8</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>34.565</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>129.567</v>
+        <v>195.057</v>
       </c>
       <c r="K68" t="n">
-        <v>0.522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3985,25 +3985,25 @@
         <v>107</v>
       </c>
       <c r="D69" t="n">
-        <v>5730.3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>10076.2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>40.949</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>72.879</v>
+        <v>114.731</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4020,25 +4020,25 @@
         <v>108</v>
       </c>
       <c r="D70" t="n">
-        <v>3756.9</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>10297.4</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>26.121</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>51.874</v>
+        <v>53.785</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         <v>109</v>
       </c>
       <c r="D71" t="n">
-        <v>12778.1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>10781.5</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>92.52</v>
+        <v>54.433</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>62.974</v>
+        <v>98.406</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4090,25 +4090,25 @@
         <v>110</v>
       </c>
       <c r="D72" t="n">
-        <v>20866.1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>6354.5</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>116.002</v>
+        <v>96.506</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>38.156</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4125,28 +4125,28 @@
         <v>112</v>
       </c>
       <c r="D73" t="n">
-        <v>4334.1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1768.4</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>12426.1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>4106.2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>26.585</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>71.655</v>
+        <v>80.276</v>
       </c>
       <c r="K73" t="n">
-        <v>13.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4160,28 +4160,28 @@
         <v>113</v>
       </c>
       <c r="D74" t="n">
-        <v>4359.8</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>6826.5</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>5110.1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>14391</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>8.033</v>
+        <v>7.769</v>
       </c>
       <c r="I74" t="n">
-        <v>17.679</v>
+        <v>38.579</v>
       </c>
       <c r="J74" t="n">
-        <v>34.415</v>
+        <v>58.473</v>
       </c>
       <c r="K74" t="n">
-        <v>104.038</v>
+        <v>103.162</v>
       </c>
     </row>
     <row r="75">
@@ -4195,28 +4195,28 @@
         <v>114</v>
       </c>
       <c r="D75" t="n">
-        <v>2115.9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>363.3</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>9041.8</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>15556.2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>7.016</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>65.393</v>
+        <v>95.39</v>
       </c>
       <c r="K75" t="n">
-        <v>117.812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4230,28 +4230,28 @@
         <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>9797.1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>12554.9</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>10358.7</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>15557.6</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>26.038</v>
+        <v>100.769</v>
       </c>
       <c r="I76" t="n">
-        <v>34.888</v>
+        <v>7.867</v>
       </c>
       <c r="J76" t="n">
-        <v>37.06</v>
+        <v>53.501</v>
       </c>
       <c r="K76" t="n">
-        <v>48.843</v>
+        <v>35.678</v>
       </c>
     </row>
     <row r="77">
@@ -4265,28 +4265,28 @@
         <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>798.5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>9665.7</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>14217.6</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>5.478</v>
+        <v>10.28</v>
       </c>
       <c r="J77" t="n">
-        <v>42.659</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>65.903</v>
+        <v>91.982</v>
       </c>
     </row>
     <row r="78">
@@ -4300,28 +4300,28 @@
         <v>117</v>
       </c>
       <c r="D78" t="n">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>64.9</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20372.5</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>15760.3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>5.968</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>75.784</v>
+        <v>16.793</v>
       </c>
       <c r="K78" t="n">
-        <v>38.984</v>
+        <v>55.599</v>
       </c>
     </row>
     <row r="79">
@@ -4335,28 +4335,28 @@
         <v>119</v>
       </c>
       <c r="D79" t="n">
-        <v>7558.4</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>5248</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1491.6</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>37.837</v>
+        <v>41.646</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>36.736</v>
+        <v>67.554</v>
       </c>
       <c r="K79" t="n">
-        <v>12.225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4370,28 +4370,28 @@
         <v>120</v>
       </c>
       <c r="D80" t="n">
-        <v>6053.6</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>107.9</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>5082.7</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>31.66</v>
+        <v>21.93</v>
       </c>
       <c r="I80" t="n">
-        <v>0.802</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>36.837</v>
+        <v>51.77</v>
       </c>
       <c r="K80" t="n">
-        <v>25.217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4405,28 +4405,28 @@
         <v>121</v>
       </c>
       <c r="D81" t="n">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>320.8</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>7206.3</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>836.7</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>35.523</v>
+        <v>56.643</v>
       </c>
       <c r="I81" t="n">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>64.942</v>
+        <v>58.474</v>
       </c>
       <c r="K81" t="n">
-        <v>4.931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4446,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4087.1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>20420.6</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>10.159</v>
+        <v>25.161</v>
       </c>
       <c r="K82" t="n">
-        <v>62.533</v>
+        <v>57.51</v>
       </c>
     </row>
     <row r="83">
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>4786</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>206.5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>5.882</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4510,28 +4510,28 @@
         <v>124</v>
       </c>
       <c r="D84" t="n">
-        <v>489.2</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>593.5</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>4513.1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>268.7</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.742</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.239</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>13.4</v>
+        <v>47.564</v>
       </c>
       <c r="K84" t="n">
-        <v>1.869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>6559.6</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>817.8</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>21.793</v>
+        <v>31.098</v>
       </c>
       <c r="K85" t="n">
-        <v>2.376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>9059</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>3560.8</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>38.876</v>
+        <v>23.864</v>
       </c>
       <c r="K86" t="n">
-        <v>5.582</v>
+        <v>2.858</v>
       </c>
     </row>
     <row r="87">
@@ -4615,28 +4615,28 @@
         <v>126</v>
       </c>
       <c r="D87" t="n">
-        <v>9426.7</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>12897.8</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>6572</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>39.455</v>
+        <v>66.2</v>
       </c>
       <c r="I87" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>54.778</v>
+        <v>4.868</v>
       </c>
       <c r="K87" t="n">
-        <v>23.364</v>
+        <v>79.741</v>
       </c>
     </row>
     <row r="88">
@@ -4650,28 +4650,28 @@
         <v>127</v>
       </c>
       <c r="D88" t="n">
-        <v>3190.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>2110.6</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>8365</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>6060.7</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>15.916</v>
+        <v>40.627</v>
       </c>
       <c r="I88" t="n">
-        <v>7.815</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>48.211</v>
+        <v>75.857</v>
       </c>
       <c r="K88" t="n">
-        <v>12.652</v>
+        <v>25.431</v>
       </c>
     </row>
     <row r="89">
@@ -4691,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1906.2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>13152.5</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.629</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>24.812</v>
+        <v>7.393</v>
       </c>
     </row>
     <row r="90">
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3988.9</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>14218.1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>8.183</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>44.84</v>
+        <v>24.603</v>
       </c>
     </row>
     <row r="91">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>91911.3</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>148.058</v>
+        <v>154.684</v>
       </c>
     </row>
     <row r="92">
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>34505.3</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>154.598</v>
+        <v>208.375</v>
       </c>
     </row>
     <row r="93">
@@ -4825,28 +4825,28 @@
         <v>133</v>
       </c>
       <c r="D93" t="n">
-        <v>1823.4</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1128.5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2264.5</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>23415.5</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.236</v>
+        <v>2.803</v>
       </c>
       <c r="I93" t="n">
-        <v>0.22</v>
+        <v>2.136</v>
       </c>
       <c r="J93" t="n">
-        <v>6.04</v>
+        <v>10.982</v>
       </c>
       <c r="K93" t="n">
-        <v>108.538</v>
+        <v>149.013</v>
       </c>
     </row>
     <row r="94">
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2055.2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>20319.2</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>11.123</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>104.698</v>
+        <v>126.983</v>
       </c>
     </row>
     <row r="95">
@@ -4898,25 +4898,25 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>78.1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>903.9</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>132807.8</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>136.609</v>
+        <v>159.769</v>
       </c>
     </row>
     <row r="96">
@@ -4930,28 +4930,28 @@
         <v>136</v>
       </c>
       <c r="D96" t="n">
-        <v>478.7</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>419.2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1009.4</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>25737</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.408</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>83.005</v>
+        <v>95.639</v>
       </c>
     </row>
     <row r="97">
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>9163.2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>58.632</v>
+        <v>53.267</v>
       </c>
     </row>
     <row r="98">
@@ -5000,28 +5000,28 @@
         <v>139</v>
       </c>
       <c r="D98" t="n">
-        <v>8794.9</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>92.3</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>10897</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>4487.8</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>33.473</v>
+        <v>42.738</v>
       </c>
       <c r="I98" t="n">
-        <v>0.965</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>68.498</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>35.526</v>
+        <v>52.138</v>
       </c>
     </row>
     <row r="99">
@@ -5035,28 +5035,28 @@
         <v>140</v>
       </c>
       <c r="D99" t="n">
-        <v>5119.8</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>209.7</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2783.7</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>4208.8</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>29.625</v>
+        <v>19.291</v>
       </c>
       <c r="I99" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>15.961</v>
+        <v>43.315</v>
       </c>
       <c r="K99" t="n">
-        <v>33.239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>9134.5</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>28322.2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5088,10 +5088,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>50.988</v>
+        <v>33.185</v>
       </c>
       <c r="K100" t="n">
-        <v>106.186</v>
+        <v>155.301</v>
       </c>
     </row>
     <row r="101">
@@ -5105,28 +5105,28 @@
         <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>4197.8</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>8397.2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>3973.4</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>21.519</v>
+        <v>48.779</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>48.944</v>
+        <v>62.221</v>
       </c>
       <c r="K101" t="n">
-        <v>23.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5140,25 +5140,25 @@
         <v>144</v>
       </c>
       <c r="D102" t="n">
-        <v>17978</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1731.6</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1660.6</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>154.114</v>
+        <v>276.893</v>
       </c>
       <c r="I102" t="n">
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>16.196</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5175,25 +5175,25 @@
         <v>145</v>
       </c>
       <c r="D103" t="n">
-        <v>6766</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>2977.8</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>43.422</v>
+        <v>66.949</v>
       </c>
       <c r="I103" t="n">
-        <v>24.814</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>7.759</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -5210,25 +5210,25 @@
         <v>146</v>
       </c>
       <c r="D104" t="n">
-        <v>8607.4</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1259.8</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>202.8</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>67.566</v>
+        <v>65.646</v>
       </c>
       <c r="I104" t="n">
-        <v>8.727</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.683</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -5245,25 +5245,25 @@
         <v>147</v>
       </c>
       <c r="D105" t="n">
-        <v>11087.6</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>72.4</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>771.7</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>68.803</v>
+        <v>66.194</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>5.315</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -5280,25 +5280,25 @@
         <v>148</v>
       </c>
       <c r="D106" t="n">
-        <v>5152.6</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>69.1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>7200.3</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>39.641</v>
+        <v>73.23</v>
       </c>
       <c r="I106" t="n">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>62.843</v>
+        <v>73.507</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -5315,25 +5315,25 @@
         <v>149</v>
       </c>
       <c r="D107" t="n">
-        <v>4930</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>4864</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>32.555</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.804</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>23.644</v>
+        <v>73.507</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -5350,28 +5350,28 @@
         <v>150</v>
       </c>
       <c r="D108" t="n">
-        <v>9374.5</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>653.4</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2722.8</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>194.6</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>68.811</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>5.457</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>18.54</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>2.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5385,25 +5385,25 @@
         <v>151</v>
       </c>
       <c r="D109" t="n">
-        <v>13026.7</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1041.2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>110.004</v>
+        <v>62.48</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>6.249</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -5420,25 +5420,25 @@
         <v>152</v>
       </c>
       <c r="D110" t="n">
-        <v>12527.9</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>5683.4</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>105.626</v>
+        <v>70.817</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>38.131</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -5461,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>248.2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1659.1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>6.974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5490,28 +5490,28 @@
         <v>155</v>
       </c>
       <c r="D112" t="n">
-        <v>307.8</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>2367.9</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>9010.5</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>1.316</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>16.418</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>34.555</v>
+        <v>55.883</v>
       </c>
     </row>
     <row r="113">
@@ -5531,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>10764.3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>7760.3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5543,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>68.398</v>
+        <v>37.435</v>
       </c>
       <c r="K113" t="n">
-        <v>43.223</v>
+        <v>71.949</v>
       </c>
     </row>
     <row r="114">
@@ -5566,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>19497.7</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>32402.5</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>43.985</v>
+        <v>52.816</v>
       </c>
       <c r="K114" t="n">
-        <v>100.783</v>
+        <v>65.556</v>
       </c>
     </row>
     <row r="115">
@@ -5595,28 +5595,28 @@
         <v>158</v>
       </c>
       <c r="D115" t="n">
-        <v>938.3</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>63.1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>5873.1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>18765.8</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>5.129</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.468</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>27.172</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>89.83</v>
+        <v>90.403</v>
       </c>
     </row>
     <row r="116">
@@ -5636,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>478.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>29490.3</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5648,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.395</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>121.341</v>
+        <v>165.613</v>
       </c>
     </row>
     <row r="117">
@@ -5665,28 +5665,28 @@
         <v>160</v>
       </c>
       <c r="D117" t="n">
-        <v>248.3</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>12577.4</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>9092.7</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>61.369</v>
+        <v>67.181</v>
       </c>
       <c r="K117" t="n">
-        <v>47.875</v>
+        <v>29.045</v>
       </c>
     </row>
     <row r="118">
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>21624.1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>8325.9</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>73.449</v>
+        <v>60.228</v>
       </c>
       <c r="K118" t="n">
-        <v>15.386</v>
+        <v>21.663</v>
       </c>
     </row>
     <row r="119">
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>31532.8</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>89826.6</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>52.798</v>
+        <v>52.376</v>
       </c>
       <c r="K119" t="n">
-        <v>73.464</v>
+        <v>73.743</v>
       </c>
     </row>
     <row r="120">
@@ -5776,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>41948.4</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>50609</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5788,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>95.361</v>
+        <v>107.55</v>
       </c>
       <c r="K120" t="n">
-        <v>49.429</v>
+        <v>53.326</v>
       </c>
     </row>
     <row r="121">
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>60450.1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>185551.5</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>90.931</v>
+        <v>86.18</v>
       </c>
       <c r="K121" t="n">
-        <v>88.834</v>
+        <v>105.588</v>
       </c>
     </row>
     <row r="122">
@@ -5846,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>16715.7</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>22675.5</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5858,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>59.415</v>
+        <v>55.772</v>
       </c>
       <c r="K122" t="n">
-        <v>45.036</v>
+        <v>38.685</v>
       </c>
     </row>
     <row r="123">
@@ -5875,28 +5875,28 @@
         <v>167</v>
       </c>
       <c r="D123" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>48903.8</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>100716.2</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>73.584</v>
+        <v>85.897</v>
       </c>
       <c r="K123" t="n">
-        <v>89.427</v>
+        <v>90.323</v>
       </c>
     </row>
     <row r="124">
@@ -5910,28 +5910,28 @@
         <v>168</v>
       </c>
       <c r="D124" t="n">
-        <v>332.7</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>32298.3</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>120612.1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.866</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>40.431</v>
+        <v>27.461</v>
       </c>
       <c r="K124" t="n">
-        <v>108.36</v>
+        <v>113.053</v>
       </c>
     </row>
     <row r="125">
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>10905.8</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>32081.1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5963,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>31.366</v>
+        <v>37.82</v>
       </c>
       <c r="K125" t="n">
-        <v>54.506</v>
+        <v>56.874</v>
       </c>
     </row>
     <row r="126">
@@ -5980,28 +5980,28 @@
         <v>171</v>
       </c>
       <c r="D126" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>179.3</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>127388.3</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>213.27</v>
+        <v>198.518</v>
       </c>
     </row>
     <row r="127">
@@ -6015,28 +6015,28 @@
         <v>172</v>
       </c>
       <c r="D127" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>3694.9</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>37137</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>14.199</v>
+        <v>10.278</v>
       </c>
       <c r="K127" t="n">
-        <v>71.044</v>
+        <v>142.296</v>
       </c>
     </row>
     <row r="128">
@@ -6050,28 +6050,28 @@
         <v>173</v>
       </c>
       <c r="D128" t="n">
-        <v>2228.3</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>11340</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>18997.5</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>2.004</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.408</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>40.856</v>
+        <v>38.827</v>
       </c>
       <c r="K128" t="n">
-        <v>83.161</v>
+        <v>178.887</v>
       </c>
     </row>
     <row r="129">
@@ -6085,28 +6085,28 @@
         <v>174</v>
       </c>
       <c r="D129" t="n">
-        <v>1459.2</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>12333.3</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1988.9</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>36.45</v>
+        <v>59.659</v>
       </c>
       <c r="K129" t="n">
-        <v>11.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>69055.4</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>86.207</v>
+        <v>100.886</v>
       </c>
     </row>
     <row r="131">
@@ -6161,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>319.5</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>131716.2</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>100.11</v>
+        <v>121.948</v>
       </c>
     </row>
     <row r="132">
@@ -6196,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>231.6</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>125830.6</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -6208,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>222.315</v>
+        <v>230.731</v>
       </c>
     </row>
     <row r="133">
@@ -6225,28 +6225,28 @@
         <v>180</v>
       </c>
       <c r="D133" t="n">
-        <v>743.1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>793.5</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>3181.1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>24492.6</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.141</v>
+        <v>0.168</v>
       </c>
       <c r="K133" t="n">
-        <v>1.859</v>
+        <v>3.214</v>
       </c>
     </row>
     <row r="134">
@@ -6260,28 +6260,28 @@
         <v>181</v>
       </c>
       <c r="D134" t="n">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>638.7</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>24511.7</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>32777.3</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>30.253</v>
+        <v>37.818</v>
       </c>
       <c r="K134" t="n">
-        <v>32.049</v>
+        <v>53.717</v>
       </c>
     </row>
     <row r="135">
@@ -6295,13 +6295,13 @@
         <v>183</v>
       </c>
       <c r="D135" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>12135.5</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>90.228</v>
+        <v>90.467</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6330,28 +6330,28 @@
         <v>184</v>
       </c>
       <c r="D136" t="n">
-        <v>1616.8</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>12565.3</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1370.8</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>15.608</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>85.802</v>
+        <v>118.382</v>
       </c>
       <c r="K136" t="n">
-        <v>2.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6365,28 +6365,28 @@
         <v>185</v>
       </c>
       <c r="D137" t="n">
-        <v>1016.1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>30225</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>3475.5</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>7.915</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>119.179</v>
+        <v>65.706</v>
       </c>
       <c r="K137" t="n">
-        <v>6.044</v>
+        <v>4.899</v>
       </c>
     </row>
     <row r="138">
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>14167.7</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>65249</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>37.833</v>
+        <v>20.051</v>
       </c>
       <c r="K138" t="n">
-        <v>90.783</v>
+        <v>102.586</v>
       </c>
     </row>
     <row r="139">
@@ -6435,28 +6435,28 @@
         <v>187</v>
       </c>
       <c r="D139" t="n">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>13287.1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>23693.9</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>67.227</v>
+        <v>95.772</v>
       </c>
       <c r="K139" t="n">
-        <v>49.436</v>
+        <v>42.929</v>
       </c>
     </row>
     <row r="140">
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>4891.2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>37014.6</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>3.619</v>
+        <v>11.101</v>
       </c>
       <c r="K140" t="n">
-        <v>60.132</v>
+        <v>51.55</v>
       </c>
     </row>
     <row r="141">
@@ -6505,28 +6505,28 @@
         <v>189</v>
       </c>
       <c r="D141" t="n">
-        <v>218.2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>61695</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>4785</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.855</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>170.673</v>
+        <v>168.114</v>
       </c>
       <c r="K141" t="n">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>9202.4</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>1.414</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="143">
@@ -6581,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>14085.9</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>52827.3</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6593,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>32.692</v>
+        <v>13.582</v>
       </c>
       <c r="K143" t="n">
-        <v>118.798</v>
+        <v>145.046</v>
       </c>
     </row>
     <row r="144">
@@ -6610,28 +6610,28 @@
         <v>193</v>
       </c>
       <c r="D144" t="n">
-        <v>4071.7</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>17362.9</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>4088.9</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>29.165</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>78.584</v>
+        <v>107.85</v>
       </c>
       <c r="K144" t="n">
-        <v>15.912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6648,25 +6648,25 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>60.2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>5042.6</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>69147.3</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>14.177</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>124.969</v>
+        <v>137.255</v>
       </c>
     </row>
     <row r="146">
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>8007.8</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>75169.5</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>16.035</v>
+        <v>18.38</v>
       </c>
       <c r="K146" t="n">
-        <v>149.715</v>
+        <v>141.168</v>
       </c>
     </row>
     <row r="147">
@@ -6715,28 +6715,28 @@
         <v>196</v>
       </c>
       <c r="D147" t="n">
-        <v>2470.9</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>19254.1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>23736.7</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>11.228</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>59.747</v>
+        <v>106.859</v>
       </c>
       <c r="K147" t="n">
-        <v>37.755</v>
+        <v>21.743</v>
       </c>
     </row>
     <row r="148">
@@ -6750,28 +6750,28 @@
         <v>192</v>
       </c>
       <c r="D148" t="n">
-        <v>501.9</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>55096.3</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>29315.2</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.609</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>132.973</v>
+        <v>128.357</v>
       </c>
       <c r="K148" t="n">
-        <v>60.658</v>
+        <v>58.937</v>
       </c>
     </row>
     <row r="149">
@@ -6785,28 +6785,28 @@
         <v>197</v>
       </c>
       <c r="D149" t="n">
-        <v>2644.1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>46734.3</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>11532.2</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>20.111</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>157.896</v>
+        <v>196.125</v>
       </c>
       <c r="K149" t="n">
-        <v>22.043</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="150">
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>51198.5</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>295.587</v>
+        <v>303.489</v>
       </c>
     </row>
     <row r="151">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>53493.7</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>289.653</v>
+        <v>295.185</v>
       </c>
     </row>
     <row r="152">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>46544.9</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>180.603</v>
+        <v>156.725</v>
       </c>
     </row>
     <row r="153">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>92101.3</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>320.588</v>
+        <v>319.449</v>
       </c>
     </row>
     <row r="154">
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>59794.9</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>334.496</v>
+        <v>338.152</v>
       </c>
     </row>
     <row r="155">
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>82633.5</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>339.755</v>
+        <v>320.45</v>
       </c>
     </row>
     <row r="156">
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>20114.5</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>84.146</v>
+        <v>84.861</v>
       </c>
     </row>
     <row r="157">
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>27781.3</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>358747.1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -7083,10 +7083,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>10.5</v>
+        <v>10.596</v>
       </c>
       <c r="K157" t="n">
-        <v>51.403</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="158">
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>146200.4</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>76.094</v>
+        <v>86.818</v>
       </c>
     </row>
     <row r="159">
@@ -7141,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>633514.5</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>64.035</v>
+        <v>79.689</v>
       </c>
     </row>
     <row r="160">
@@ -7173,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>28497.5</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>29.809</v>
+        <v>36.272</v>
       </c>
     </row>
     <row r="161">
@@ -7205,28 +7205,28 @@
         <v>212</v>
       </c>
       <c r="D161" t="n">
-        <v>1265.4</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>2165</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>6909.2</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>52768.2</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.389</v>
+        <v>0.007</v>
       </c>
       <c r="I161" t="n">
-        <v>0.508</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>15.749</v>
+        <v>0.957</v>
       </c>
       <c r="K161" t="n">
-        <v>115.044</v>
+        <v>113.345</v>
       </c>
     </row>
     <row r="162">
@@ -7240,28 +7240,28 @@
         <v>213</v>
       </c>
       <c r="D162" t="n">
-        <v>4702.8</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>2210.5</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>7674.3</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>11960.5</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>35.552</v>
+        <v>47.257</v>
       </c>
       <c r="I162" t="n">
-        <v>4.895</v>
+        <v>4.937</v>
       </c>
       <c r="J162" t="n">
-        <v>33.834</v>
+        <v>94.696</v>
       </c>
       <c r="K162" t="n">
-        <v>50.054</v>
+        <v>14.349</v>
       </c>
     </row>
     <row r="163">
@@ -7275,28 +7275,28 @@
         <v>214</v>
       </c>
       <c r="D163" t="n">
-        <v>416.2</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>8889.4</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>20810.6</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.684</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>42.848</v>
+        <v>33.803</v>
       </c>
       <c r="K163" t="n">
-        <v>65.229</v>
+        <v>74.709</v>
       </c>
     </row>
     <row r="164">
@@ -7310,28 +7310,28 @@
         <v>215</v>
       </c>
       <c r="D164" t="n">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>961.5</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>8977.4</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>24059.6</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>3.819</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>47.233</v>
+        <v>27.336</v>
       </c>
       <c r="K164" t="n">
-        <v>32.592</v>
+        <v>55.864</v>
       </c>
     </row>
     <row r="165">
@@ -7345,28 +7345,28 @@
         <v>216</v>
       </c>
       <c r="D165" t="n">
-        <v>1382.4</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1291.9</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1058.6</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>19431.5</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>12.479</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>13.593</v>
+        <v>51.921</v>
       </c>
       <c r="J165" t="n">
-        <v>5.485</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>50.173</v>
+        <v>30.511</v>
       </c>
     </row>
     <row r="166">
@@ -7380,28 +7380,28 @@
         <v>217</v>
       </c>
       <c r="D166" t="n">
-        <v>1447.7</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2948.9</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>5724.5</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>6436.3</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>5.358</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>16.628</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>21.805</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>42.147</v>
+        <v>40.27</v>
       </c>
     </row>
     <row r="167">
@@ -7415,28 +7415,28 @@
         <v>218</v>
       </c>
       <c r="D167" t="n">
-        <v>11893.8</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>440.6</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>13347.4</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>4369.3</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>70.212</v>
+        <v>73.623</v>
       </c>
       <c r="I167" t="n">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>94.049</v>
+        <v>97.415</v>
       </c>
       <c r="K167" t="n">
-        <v>13.469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -7450,28 +7450,28 @@
         <v>219</v>
       </c>
       <c r="D168" t="n">
-        <v>2965.5</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1468.2</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>4854.7</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>27263.3</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>17.892</v>
+        <v>46.549</v>
       </c>
       <c r="I168" t="n">
-        <v>11.366</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>35.544</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>92.932</v>
+        <v>110.497</v>
       </c>
     </row>
     <row r="169">
@@ -7488,25 +7488,25 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>232.4</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>6161.3</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>18795.2</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1.019</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>48.455</v>
+        <v>54.953</v>
       </c>
       <c r="K169" t="n">
-        <v>67.193</v>
+        <v>62.278</v>
       </c>
     </row>
     <row r="170">
@@ -7526,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>317.4</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>4111.5</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7538,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0.581</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>14.604</v>
+        <v>21.644</v>
       </c>
     </row>
     <row r="171">
@@ -7555,25 +7555,25 @@
         <v>223</v>
       </c>
       <c r="D171" t="n">
-        <v>4347.3</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>17298.2</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>22.528</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>76.558</v>
+        <v>56.86</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -7590,25 +7590,25 @@
         <v>224</v>
       </c>
       <c r="D172" t="n">
-        <v>5889</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>16761</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>29.193</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>81.26</v>
+        <v>68.496</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -7625,25 +7625,25 @@
         <v>225</v>
       </c>
       <c r="D173" t="n">
-        <v>13501.3</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>15730.7</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>54.472</v>
+        <v>27.959</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>73.205</v>
+        <v>136.253</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>24498.6</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>20897.6</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>61.846</v>
+        <v>110.164</v>
       </c>
       <c r="K174" t="n">
-        <v>65.749</v>
+        <v>48.945</v>
       </c>
     </row>
     <row r="175">
@@ -7695,25 +7695,25 @@
         <v>227</v>
       </c>
       <c r="D175" t="n">
-        <v>5156.9</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>14726.9</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>28.204</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>68.599</v>
+        <v>171.523</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
@@ -7730,28 +7730,28 @@
         <v>228</v>
       </c>
       <c r="D176" t="n">
-        <v>687.3</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>17742.6</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2.749</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>76.241</v>
+        <v>128.455</v>
       </c>
       <c r="K176" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7765,28 +7765,28 @@
         <v>229</v>
       </c>
       <c r="D177" t="n">
-        <v>1160.3</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>22837.9</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>298.6</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>2.386</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>76.961</v>
+        <v>41.011</v>
       </c>
       <c r="K177" t="n">
-        <v>0.911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7800,25 +7800,25 @@
         <v>230</v>
       </c>
       <c r="D178" t="n">
-        <v>237.8</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>29318.1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1.498</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>119.153</v>
+        <v>103.277</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>540.6</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="180">
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>776.1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7911,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>331.6</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>2590</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7923,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.772</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>6.251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1423.2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>4.405</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="183">
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="184">
@@ -8045,28 +8045,28 @@
         <v>239</v>
       </c>
       <c r="D185" t="n">
-        <v>10001.7</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1236.7</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>17131.8</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>13212.1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>46.578</v>
+        <v>41.344</v>
       </c>
       <c r="I185" t="n">
-        <v>10.805</v>
+        <v>56.612</v>
       </c>
       <c r="J185" t="n">
-        <v>57.238</v>
+        <v>74.688</v>
       </c>
       <c r="K185" t="n">
-        <v>46.298</v>
+        <v>16.618</v>
       </c>
     </row>
     <row r="186">
@@ -8080,28 +8080,28 @@
         <v>240</v>
       </c>
       <c r="D186" t="n">
-        <v>3508.4</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>2550.7</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>4585.9</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>6385.3</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>21.245</v>
+        <v>46.202</v>
       </c>
       <c r="I186" t="n">
-        <v>20.853</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>34.327</v>
+        <v>45.378</v>
       </c>
       <c r="K186" t="n">
-        <v>58.968</v>
+        <v>64.273</v>
       </c>
     </row>
     <row r="187">
@@ -8115,28 +8115,28 @@
         <v>241</v>
       </c>
       <c r="D187" t="n">
-        <v>8762.4</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>3769.5</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>627.9</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>2250.8</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>33.285</v>
+        <v>23.065</v>
       </c>
       <c r="I187" t="n">
-        <v>30.229</v>
+        <v>48.588</v>
       </c>
       <c r="J187" t="n">
-        <v>1.896</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>10.009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -8150,28 +8150,28 @@
         <v>242</v>
       </c>
       <c r="D188" t="n">
-        <v>10245.5</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>2851.9</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>899.1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>5495.6</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>46.986</v>
+        <v>27.723</v>
       </c>
       <c r="I188" t="n">
-        <v>24.873</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>4.379</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>47.97</v>
+        <v>107.257</v>
       </c>
     </row>
     <row r="189">
@@ -8185,28 +8185,28 @@
         <v>243</v>
       </c>
       <c r="D189" t="n">
-        <v>2862.5</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>5416.6</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>6919.7</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>15474.6</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>15.718</v>
+        <v>43.939</v>
       </c>
       <c r="I189" t="n">
-        <v>40.829</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>28.191</v>
+        <v>59.597</v>
       </c>
       <c r="K189" t="n">
-        <v>76.139</v>
+        <v>89.68</v>
       </c>
     </row>
     <row r="190">
@@ -8226,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>17825.4</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>15222.5</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8238,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>72.814</v>
+        <v>69.287</v>
       </c>
       <c r="K190" t="n">
-        <v>66.937</v>
+        <v>15.986</v>
       </c>
     </row>
     <row r="191">
@@ -8255,28 +8255,28 @@
         <v>245</v>
       </c>
       <c r="D191" t="n">
-        <v>4549.7</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>4985.1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1403.4</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>4587.6</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>14.745</v>
+        <v>0.392</v>
       </c>
       <c r="I191" t="n">
-        <v>40.424</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>6.589</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>27.051</v>
+        <v>47.598</v>
       </c>
     </row>
     <row r="192">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>35.364</v>
       </c>
     </row>
     <row r="193">
@@ -8331,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1327.9</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1155.1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8343,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.321</v>
+        <v>38.3</v>
       </c>
       <c r="K193" t="n">
-        <v>0.712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>3971.3</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>14.698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>52.142</v>
       </c>
     </row>
     <row r="197">
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>252.2</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>0.848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>8492.2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>32.727</v>
+        <v>28.462</v>
       </c>
     </row>
     <row r="201">
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>216.6</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>324.4</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>35.364</v>
       </c>
     </row>
     <row r="202">
@@ -8646,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>2113.4</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>7647.4</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>10.379</v>
+        <v>38.3</v>
       </c>
       <c r="K202" t="n">
-        <v>26.49</v>
+        <v>46.605</v>
       </c>
     </row>
     <row r="203">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>52.142</v>
       </c>
     </row>
     <row r="205">
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>160.1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>942.7</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0.647</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>2.177</v>
+        <v>52.142</v>
       </c>
     </row>
     <row r="206">
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>52.142</v>
       </c>
     </row>
     <row r="207">
@@ -8856,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1084.8</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1137.3</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8868,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.382</v>
+        <v>64.25</v>
       </c>
       <c r="K208" t="n">
-        <v>2.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8891,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>27340.5</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8903,10 +8903,10 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>121.336</v>
+        <v>190.761</v>
       </c>
     </row>
     <row r="210">
@@ -8923,25 +8923,25 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>189.6</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>70088.2</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.215</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>140.56</v>
+        <v>145.43</v>
       </c>
     </row>
     <row r="211">
@@ -8955,28 +8955,28 @@
         <v>267</v>
       </c>
       <c r="D211" t="n">
-        <v>941.2</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>3860.4</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>16548.8</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>26851.1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1.807</v>
+        <v>10.082</v>
       </c>
       <c r="I211" t="n">
-        <v>8.816</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>54.216</v>
+        <v>43.686</v>
       </c>
       <c r="K211" t="n">
-        <v>81.376</v>
+        <v>100.301</v>
       </c>
     </row>
     <row r="212">
@@ -8990,28 +8990,28 @@
         <v>268</v>
       </c>
       <c r="D212" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>65.1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>6586.9</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>34567.6</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>22.122</v>
+        <v>19.716</v>
       </c>
       <c r="K212" t="n">
-        <v>114.347</v>
+        <v>111.547</v>
       </c>
     </row>
     <row r="213">
@@ -9025,28 +9025,28 @@
         <v>269</v>
       </c>
       <c r="D213" t="n">
-        <v>238.4</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>335.6</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>3072.4</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>28356.5</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.849</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>7.095</v>
+        <v>8.235</v>
       </c>
       <c r="K213" t="n">
-        <v>91.262</v>
+        <v>88.423</v>
       </c>
     </row>
     <row r="214">
@@ -9060,28 +9060,28 @@
         <v>270</v>
       </c>
       <c r="D214" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>648.8</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>82706.8</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.283</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>175.86</v>
+        <v>172.679</v>
       </c>
     </row>
     <row r="215">
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>7616.8</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>10.606</v>
+        <v>3.594</v>
       </c>
     </row>
     <row r="216">
@@ -9136,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>76.4</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>5642.7</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>15.777</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="217">
@@ -9165,28 +9165,28 @@
         <v>273</v>
       </c>
       <c r="D217" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>2927.1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>47372.9</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>8.595</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>175.69</v>
+        <v>154.196</v>
       </c>
     </row>
     <row r="218">
@@ -9203,13 +9203,13 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>72948</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9218,10 +9218,10 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>156.499</v>
+        <v>152.812</v>
       </c>
     </row>
     <row r="219">
@@ -9241,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>29962.9</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>97.024</v>
+        <v>58.319</v>
       </c>
     </row>
     <row r="220">
@@ -9270,28 +9270,28 @@
         <v>277</v>
       </c>
       <c r="D220" t="n">
-        <v>10907.8</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>25776.4</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>399.7</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>52.564</v>
+        <v>12.06</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>136.981</v>
+        <v>127.39</v>
       </c>
       <c r="K220" t="n">
-        <v>1.756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9305,28 +9305,28 @@
         <v>278</v>
       </c>
       <c r="D221" t="n">
-        <v>5476.8</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>23222.2</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>10407.6</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>14.79</v>
+        <v>62.031</v>
       </c>
       <c r="I221" t="n">
-        <v>0.184</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>106.649</v>
+        <v>78.459</v>
       </c>
       <c r="K221" t="n">
-        <v>32.555</v>
+        <v>22.779</v>
       </c>
     </row>
     <row r="222">
@@ -9340,28 +9340,28 @@
         <v>279</v>
       </c>
       <c r="D222" t="n">
-        <v>8721.6</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>16844.4</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>6824.8</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>34.354</v>
+        <v>34.425</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>83.287</v>
+        <v>109.945</v>
       </c>
       <c r="K222" t="n">
-        <v>24.805</v>
+        <v>29.434</v>
       </c>
     </row>
     <row r="223">
@@ -9375,28 +9375,28 @@
         <v>280</v>
       </c>
       <c r="D223" t="n">
-        <v>3921.9</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>15949.6</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>28322.8</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>8.871</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>58.87</v>
+        <v>54.362</v>
       </c>
       <c r="K223" t="n">
-        <v>101.356</v>
+        <v>77.091</v>
       </c>
     </row>
     <row r="224">
@@ -9410,28 +9410,28 @@
         <v>281</v>
       </c>
       <c r="D224" t="n">
-        <v>4536.9</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>3212</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>11793.8</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>9746.2</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>15.249</v>
+        <v>34.547</v>
       </c>
       <c r="I224" t="n">
-        <v>13.647</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>55.398</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>42.4</v>
+        <v>32.779</v>
       </c>
     </row>
     <row r="225">
@@ -9445,28 +9445,28 @@
         <v>282</v>
       </c>
       <c r="D225" t="n">
-        <v>5543.5</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>1160.2</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>25677.4</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>19.77</v>
+        <v>12.433</v>
       </c>
       <c r="I225" t="n">
-        <v>2.478</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>91.106</v>
+        <v>106.843</v>
       </c>
       <c r="K225" t="n">
-        <v>16.296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -9480,28 +9480,28 @@
         <v>284</v>
       </c>
       <c r="D226" t="n">
-        <v>460.7</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>24998.4</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>929.4</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>1.461</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>113.753</v>
+        <v>112.45</v>
       </c>
       <c r="K226" t="n">
-        <v>2.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -9515,28 +9515,28 @@
         <v>285</v>
       </c>
       <c r="D227" t="n">
-        <v>30355.1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>47.4</v>
+        <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>90641</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>21151.5</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>67.281</v>
+        <v>87.258</v>
       </c>
       <c r="I227" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>146.995</v>
+        <v>169.401</v>
       </c>
       <c r="K227" t="n">
-        <v>17.597</v>
+        <v>12.602</v>
       </c>
     </row>
     <row r="228">
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>1783.6</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>68086.6</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9568,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>79.617</v>
+        <v>86.365</v>
       </c>
     </row>
     <row r="229">
@@ -9585,28 +9585,28 @@
         <v>287</v>
       </c>
       <c r="D229" t="n">
-        <v>3889.1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>9618.3</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>32521.4</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>93823.8</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>2.656</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>11.137</v>
+        <v>38.335</v>
       </c>
       <c r="J229" t="n">
-        <v>49.942</v>
+        <v>32.026</v>
       </c>
       <c r="K229" t="n">
-        <v>156.582</v>
+        <v>143.37</v>
       </c>
     </row>
     <row r="230">
@@ -9620,28 +9620,28 @@
         <v>288</v>
       </c>
       <c r="D230" t="n">
-        <v>7375.5</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1590.6</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>38024.6</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>151452.2</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>7.067</v>
+        <v>22.43</v>
       </c>
       <c r="I230" t="n">
-        <v>1.334</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>97.765</v>
+        <v>133.109</v>
       </c>
       <c r="K230" t="n">
-        <v>135.197</v>
+        <v>145.185</v>
       </c>
     </row>
     <row r="231">
@@ -9655,28 +9655,28 @@
         <v>289</v>
       </c>
       <c r="D231" t="n">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>18218</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>152593.6</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>29.197</v>
+        <v>5.702</v>
       </c>
       <c r="K231" t="n">
-        <v>141.552</v>
+        <v>167.909</v>
       </c>
     </row>
     <row r="232">
@@ -9690,25 +9690,25 @@
         <v>291</v>
       </c>
       <c r="D232" t="n">
-        <v>18797</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>117.3</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>6910.6</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>85.069</v>
+        <v>69.665</v>
       </c>
       <c r="I232" t="n">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>33.352</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -9725,25 +9725,25 @@
         <v>292</v>
       </c>
       <c r="D233" t="n">
-        <v>20268.4</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>797.1</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>1860.2</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>176.218</v>
+        <v>138.893</v>
       </c>
       <c r="I233" t="n">
-        <v>9.131</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>7.259</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -9760,25 +9760,25 @@
         <v>293</v>
       </c>
       <c r="D234" t="n">
-        <v>5047.4</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>9716.2</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>43.031</v>
+        <v>57.25</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>76.832</v>
+        <v>113.167</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>294</v>
       </c>
       <c r="D235" t="n">
-        <v>10847.1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>5582.2</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>96.557</v>
+        <v>121.931</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>40.837</v>
+        <v>0</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -9830,28 +9830,28 @@
         <v>296</v>
       </c>
       <c r="D236" t="n">
-        <v>1640.3</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>6615.6</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>5379.4</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>42369</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>1.911</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>6.962</v>
+        <v>16.436</v>
       </c>
       <c r="J236" t="n">
-        <v>26.103</v>
+        <v>18.583</v>
       </c>
       <c r="K236" t="n">
-        <v>136.75</v>
+        <v>81.328</v>
       </c>
     </row>
     <row r="237">
@@ -9865,28 +9865,28 @@
         <v>297</v>
       </c>
       <c r="D237" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>4429.6</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>334.5</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>30040.4</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>20.386</v>
+        <v>15.166</v>
       </c>
       <c r="J237" t="n">
-        <v>0.134</v>
+        <v>0.526</v>
       </c>
       <c r="K237" t="n">
-        <v>72.305</v>
+        <v>94.694</v>
       </c>
     </row>
     <row r="238">
@@ -9900,28 +9900,28 @@
         <v>298</v>
       </c>
       <c r="D238" t="n">
-        <v>166.1</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>1383.5</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>2195.7</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>37597.4</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>2.095</v>
+        <v>0.192</v>
       </c>
       <c r="J238" t="n">
-        <v>8.254</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>77.798</v>
+        <v>83.498</v>
       </c>
     </row>
     <row r="239">
@@ -9938,25 +9938,25 @@
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>34770.2</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0.772</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>101.296</v>
+        <v>104.924</v>
       </c>
     </row>
     <row r="240">
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>40469</v>
+        <v>0</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>115.629</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="241">
@@ -10005,28 +10005,28 @@
         <v>302</v>
       </c>
       <c r="D241" t="n">
-        <v>4218.1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>3659.3</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>8119.7</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>59984.5</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>7.071</v>
+        <v>21.671</v>
       </c>
       <c r="I241" t="n">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>23.418</v>
+        <v>9.263</v>
       </c>
       <c r="K241" t="n">
-        <v>137.591</v>
+        <v>141.405</v>
       </c>
     </row>
     <row r="242">
@@ -10040,28 +10040,28 @@
         <v>303</v>
       </c>
       <c r="D242" t="n">
-        <v>6585.5</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>3102.3</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>8178.4</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>4500.4</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>36.962</v>
+        <v>25.464</v>
       </c>
       <c r="I242" t="n">
-        <v>15.459</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>48.785</v>
+        <v>102.088</v>
       </c>
       <c r="K242" t="n">
-        <v>28.252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -10075,28 +10075,28 @@
         <v>304</v>
       </c>
       <c r="D243" t="n">
-        <v>265.8</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>1003.8</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>5931</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>5294</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0.932</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>5.298</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>29.858</v>
+        <v>40.573</v>
       </c>
       <c r="K243" t="n">
-        <v>39.683</v>
+        <v>49.368</v>
       </c>
     </row>
     <row r="244">
@@ -10110,28 +10110,28 @@
         <v>305</v>
       </c>
       <c r="D244" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>222.1</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>4412.6</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>6878.9</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>24.004</v>
+        <v>31.062</v>
       </c>
       <c r="K244" t="n">
-        <v>30.139</v>
+        <v>30.822</v>
       </c>
     </row>
     <row r="245">
@@ -10145,28 +10145,28 @@
         <v>306</v>
       </c>
       <c r="D245" t="n">
-        <v>8104.4</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>1856.8</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1738.4</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>4066</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>33.699</v>
+        <v>39.493</v>
       </c>
       <c r="I245" t="n">
-        <v>7.797</v>
+        <v>46.951</v>
       </c>
       <c r="J245" t="n">
-        <v>12.064</v>
+        <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>30.186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -10180,28 +10180,28 @@
         <v>307</v>
       </c>
       <c r="D246" t="n">
-        <v>4268.5</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>2285.1</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>4121.6</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>4618.2</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>10.618</v>
+        <v>0.08</v>
       </c>
       <c r="I246" t="n">
-        <v>4.8</v>
+        <v>14.985</v>
       </c>
       <c r="J246" t="n">
-        <v>31.505</v>
+        <v>48.12</v>
       </c>
       <c r="K246" t="n">
-        <v>30.341</v>
+        <v>51.699</v>
       </c>
     </row>
     <row r="247">
@@ -10215,28 +10215,28 @@
         <v>309</v>
       </c>
       <c r="D247" t="n">
-        <v>1732.1</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>14885.4</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>140283.4</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0.818</v>
+        <v>0.688</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>10.218</v>
+        <v>10.573</v>
       </c>
       <c r="K247" t="n">
-        <v>54.345</v>
+        <v>57.738</v>
       </c>
     </row>
     <row r="248">
@@ -10250,28 +10250,28 @@
         <v>310</v>
       </c>
       <c r="D248" t="n">
-        <v>1798</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>377.7</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>9502.9</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>143927.4</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1.034</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>6.734</v>
+        <v>7.992</v>
       </c>
       <c r="K248" t="n">
-        <v>79.625</v>
+        <v>82.817</v>
       </c>
     </row>
     <row r="249">
@@ -10285,28 +10285,28 @@
         <v>311</v>
       </c>
       <c r="D249" t="n">
-        <v>254.1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>345.5</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1179.6</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>72609.7</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>1.411</v>
+        <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>85.673</v>
+        <v>101.505</v>
       </c>
     </row>
     <row r="250">
@@ -10320,28 +10320,28 @@
         <v>313</v>
       </c>
       <c r="D250" t="n">
-        <v>3131</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>24112.8</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>16658.6</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>13.883</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>109.22</v>
+        <v>123.217</v>
       </c>
       <c r="K250" t="n">
-        <v>64.501</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="251">
@@ -10355,28 +10355,28 @@
         <v>314</v>
       </c>
       <c r="D251" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>113.5</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>6254.2</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>32986.9</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>20.137</v>
+        <v>44.352</v>
       </c>
       <c r="K251" t="n">
-        <v>108.39</v>
+        <v>108.336</v>
       </c>
     </row>
     <row r="252">
@@ -10390,28 +10390,28 @@
         <v>315</v>
       </c>
       <c r="D252" t="n">
-        <v>834.6</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>32193.6</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>292.4</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3.237</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>168.689</v>
+        <v>165.178</v>
       </c>
       <c r="K252" t="n">
-        <v>0.842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -10431,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>4363.6</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>23537.5</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>22.363</v>
+        <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>116.418</v>
+        <v>163.312</v>
       </c>
     </row>
     <row r="254">
@@ -10460,28 +10460,28 @@
         <v>317</v>
       </c>
       <c r="D254" t="n">
-        <v>6435.8</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>18325.4</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1035.4</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>33.204</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>80.253</v>
+        <v>101.693</v>
       </c>
       <c r="K254" t="n">
-        <v>3.805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -10495,25 +10495,25 @@
         <v>318</v>
       </c>
       <c r="D255" t="n">
-        <v>8693.9</v>
+        <v>0</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>9709.9</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>48.875</v>
+        <v>75.524</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>43.163</v>
+        <v>76.105</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -10530,28 +10530,28 @@
         <v>320</v>
       </c>
       <c r="D256" t="n">
-        <v>1903.1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>5715.8</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>46176.7</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>12.453</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>21.881</v>
+        <v>11.054</v>
       </c>
       <c r="K256" t="n">
-        <v>42.081</v>
+        <v>51.144</v>
       </c>
     </row>
     <row r="257">
@@ -10571,10 +10571,10 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>175.6</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>52800.9</v>
+        <v>0</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>67.612</v>
+        <v>58.731</v>
       </c>
     </row>
     <row r="258">
@@ -10600,28 +10600,28 @@
         <v>322</v>
       </c>
       <c r="D258" t="n">
-        <v>389.3</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>9363.7</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>122490.8</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>0.712</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>14.068</v>
+        <v>9.554</v>
       </c>
       <c r="K258" t="n">
-        <v>71.471</v>
+        <v>91.116</v>
       </c>
     </row>
     <row r="259">
@@ -10635,28 +10635,28 @@
         <v>323</v>
       </c>
       <c r="D259" t="n">
-        <v>3968.8</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>5989.3</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>11161</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>30.028</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>22.054</v>
+        <v>68.911</v>
       </c>
       <c r="K259" t="n">
-        <v>7.593</v>
+        <v>6.709</v>
       </c>
     </row>
     <row r="260">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>216961.2</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>132.253</v>
+        <v>133.54</v>
       </c>
     </row>
     <row r="261">
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>160435.6</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>69.547</v>
+        <v>63.791</v>
       </c>
     </row>
     <row r="262">
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>3297.4</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>235713.1</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>10.098</v>
+        <v>11.197</v>
       </c>
       <c r="K262" t="n">
-        <v>96.8</v>
+        <v>101.218</v>
       </c>
     </row>
     <row r="263">
@@ -10775,28 +10775,28 @@
         <v>329</v>
       </c>
       <c r="D263" t="n">
-        <v>3652.8</v>
+        <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>207.7</v>
+        <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>10034.3</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>12726.7</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>3.079</v>
+        <v>4.813</v>
       </c>
       <c r="I263" t="n">
-        <v>1.507</v>
+        <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>54.856</v>
+        <v>78.47</v>
       </c>
       <c r="K263" t="n">
-        <v>37.875</v>
+        <v>39.631</v>
       </c>
     </row>
     <row r="264">
@@ -10816,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>336.1</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>12617.9</v>
+        <v>0</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>1.201</v>
+        <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>25.461</v>
+        <v>29.515</v>
       </c>
     </row>
     <row r="265">
@@ -10845,28 +10845,28 @@
         <v>330</v>
       </c>
       <c r="D265" t="n">
-        <v>4459.9</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>11013.2</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>5728.3</v>
+        <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>6.223</v>
+        <v>26.9</v>
       </c>
       <c r="I265" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>75.723</v>
+        <v>85.901</v>
       </c>
       <c r="K265" t="n">
-        <v>17.428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -10886,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>289.3</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>51540.3</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>97.427</v>
+        <v>119.303</v>
       </c>
     </row>
     <row r="267">
@@ -10915,28 +10915,28 @@
         <v>333</v>
       </c>
       <c r="D267" t="n">
-        <v>553.7</v>
+        <v>0</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>12672.3</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>35126.6</v>
+        <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>1.534</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>54.87</v>
+        <v>57.917</v>
       </c>
       <c r="K267" t="n">
-        <v>192.208</v>
+        <v>133.734</v>
       </c>
     </row>
     <row r="268">
@@ -10950,28 +10950,28 @@
         <v>334</v>
       </c>
       <c r="D268" t="n">
-        <v>2409.2</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>246.9</v>
+        <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>2742.6</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>30214.6</v>
+        <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>2.744</v>
+        <v>2.832</v>
       </c>
       <c r="I268" t="n">
-        <v>0.552</v>
+        <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>3.114</v>
+        <v>3.631</v>
       </c>
       <c r="K268" t="n">
-        <v>100.155</v>
+        <v>99.113</v>
       </c>
     </row>
     <row r="269">
@@ -10991,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>308.3</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>30607.6</v>
+        <v>0</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -11003,10 +11003,10 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>0.892</v>
+        <v>0</v>
       </c>
       <c r="K269" t="n">
-        <v>193.991</v>
+        <v>182.722</v>
       </c>
     </row>
     <row r="270">
@@ -11026,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>26025.1</v>
+        <v>0</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -11038,10 +11038,10 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>0.668</v>
+        <v>0</v>
       </c>
       <c r="K270" t="n">
-        <v>114.72</v>
+        <v>111.602</v>
       </c>
     </row>
     <row r="271">
@@ -11055,28 +11055,28 @@
         <v>337</v>
       </c>
       <c r="D271" t="n">
-        <v>333.7</v>
+        <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>217.5</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>4647.7</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>23566.2</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0.156</v>
+        <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>15.879</v>
+        <v>12.9</v>
       </c>
       <c r="K271" t="n">
-        <v>116.054</v>
+        <v>121.18</v>
       </c>
     </row>
     <row r="272">
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>13325.5</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>48.206</v>
+        <v>53.852</v>
       </c>
     </row>
     <row r="273">
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>103658.3</v>
+        <v>0</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>80.785</v>
+        <v>157.219</v>
       </c>
     </row>
     <row r="274">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>45259.5</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>45.581</v>
+        <v>116.312</v>
       </c>
     </row>
     <row r="275">
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>138541.3</v>
+        <v>0</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>45.221</v>
+        <v>75.566</v>
       </c>
     </row>
     <row r="276">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>265453.8</v>
+        <v>0</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="K276" t="n">
-        <v>122.226</v>
+        <v>150.223</v>
       </c>
     </row>
     <row r="277">
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>76307.6</v>
+        <v>0</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="K277" t="n">
-        <v>72.963</v>
+        <v>156.274</v>
       </c>
     </row>
     <row r="278">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>283930.5</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>246.285</v>
+        <v>274.048</v>
       </c>
     </row>
     <row r="279">
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>42916.9</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>24.169</v>
+        <v>47.321</v>
       </c>
     </row>
     <row r="280">
@@ -11370,28 +11370,28 @@
         <v>348</v>
       </c>
       <c r="D280" t="n">
-        <v>2987.8</v>
+        <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>4840.8</v>
+        <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>2059.1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>34322.8</v>
+        <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>4.273</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>7.067</v>
+        <v>13.82</v>
       </c>
       <c r="J280" t="n">
-        <v>4.017</v>
+        <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>85.453</v>
+        <v>100.634</v>
       </c>
     </row>
     <row r="281">
@@ -11411,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>933.6</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>29651.8</v>
+        <v>0</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -11423,10 +11423,10 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>2.247</v>
+        <v>0</v>
       </c>
       <c r="K281" t="n">
-        <v>82.222</v>
+        <v>81.822</v>
       </c>
     </row>
     <row r="282">
@@ -11440,28 +11440,28 @@
         <v>350</v>
       </c>
       <c r="D282" t="n">
-        <v>7002.4</v>
+        <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>7423.4</v>
+        <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>994.9</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>39478.1</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>11.295</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>14.213</v>
+        <v>18.011</v>
       </c>
       <c r="J282" t="n">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>121.096</v>
+        <v>103.325</v>
       </c>
     </row>
     <row r="283">
@@ -11481,10 +11481,10 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>6360.9</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>57477.3</v>
+        <v>0</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11493,10 +11493,10 @@
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>12.509</v>
+        <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>116.161</v>
+        <v>81.63</v>
       </c>
     </row>
     <row r="284">
@@ -11516,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>56388.5</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11528,10 +11528,10 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>182.577</v>
+        <v>230.752</v>
       </c>
     </row>
     <row r="285">
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>3572.1</v>
+        <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>35229.1</v>
+        <v>0</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11563,10 +11563,10 @@
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>15.173</v>
+        <v>41.367</v>
       </c>
       <c r="K285" t="n">
-        <v>126.235</v>
+        <v>121.819</v>
       </c>
     </row>
     <row r="286">
@@ -11580,25 +11580,25 @@
         <v>355</v>
       </c>
       <c r="D286" t="n">
-        <v>2845.6</v>
+        <v>0</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>6368.7</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>13.762</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>42.495</v>
+        <v>77.447</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
@@ -11615,25 +11615,25 @@
         <v>356</v>
       </c>
       <c r="D287" t="n">
-        <v>12584.8</v>
+        <v>0</v>
       </c>
       <c r="E287" t="n">
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>4926.8</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>82.607</v>
+        <v>47.276</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>22.844</v>
+        <v>68.411</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
@@ -11650,25 +11650,25 @@
         <v>357</v>
       </c>
       <c r="D288" t="n">
-        <v>2731.1</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>6169.4</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>6.387</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>24.429</v>
+        <v>0</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
@@ -11685,25 +11685,25 @@
         <v>358</v>
       </c>
       <c r="D289" t="n">
-        <v>3808.6</v>
+        <v>0</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>7659.6</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>17.727</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>20.955</v>
+        <v>82.605</v>
       </c>
       <c r="K289" t="n">
         <v>0</v>
@@ -11720,25 +11720,25 @@
         <v>354</v>
       </c>
       <c r="D290" t="n">
-        <v>3506.8</v>
+        <v>0</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>5187.8</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>20.595</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>22.904</v>
+        <v>67.49</v>
       </c>
       <c r="K290" t="n">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>69249.1</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>166.013</v>
+        <v>177.702</v>
       </c>
     </row>
     <row r="292">
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>101617</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>214.529</v>
+        <v>216.306</v>
       </c>
     </row>
     <row r="293">
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>60421.6</v>
+        <v>0</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>106.89</v>
+        <v>101.171</v>
       </c>
     </row>
     <row r="294">
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>146428.6</v>
+        <v>0</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>348.012</v>
+        <v>361.205</v>
       </c>
     </row>
     <row r="295">
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>327602</v>
+        <v>0</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>284.735</v>
+        <v>282.558</v>
       </c>
     </row>
     <row r="296">
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>137992.2</v>
+        <v>0</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>179.771</v>
+        <v>176.555</v>
       </c>
     </row>
     <row r="297">
@@ -11971,10 +11971,10 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>8532.6</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>82141</v>
+        <v>0</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11983,10 +11983,10 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>20.483</v>
+        <v>16.264</v>
       </c>
       <c r="K297" t="n">
-        <v>168.808</v>
+        <v>197.844</v>
       </c>
     </row>
     <row r="298">
@@ -12006,10 +12006,10 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>12044.8</v>
+        <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>43622.1</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12018,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>44.644</v>
+        <v>31.574</v>
       </c>
       <c r="K298" t="n">
-        <v>92.657</v>
+        <v>82.339</v>
       </c>
     </row>
     <row r="299">
@@ -12035,28 +12035,28 @@
         <v>369</v>
       </c>
       <c r="D299" t="n">
-        <v>13890.3</v>
+        <v>0</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>35757.7</v>
+        <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>30040</v>
+        <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>24.824</v>
+        <v>24.166</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>88.602</v>
+        <v>98.945</v>
       </c>
       <c r="K299" t="n">
-        <v>74.761</v>
+        <v>70.224</v>
       </c>
     </row>
     <row r="300">
@@ -12070,28 +12070,28 @@
         <v>370</v>
       </c>
       <c r="D300" t="n">
-        <v>106.4</v>
+        <v>0</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>6451.8</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>48178.9</v>
+        <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>21.545</v>
+        <v>12.553</v>
       </c>
       <c r="K300" t="n">
-        <v>82.457</v>
+        <v>81.577</v>
       </c>
     </row>
     <row r="301">
@@ -12111,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>723.8</v>
+        <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>8243.2</v>
+        <v>0</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -12123,10 +12123,10 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>0.816</v>
+        <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>9.604</v>
+        <v>19.956</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_kenya.xlsx
+++ b/public/data/soil/soil_table_kenya.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9870.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1145.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12762.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2807.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10894.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9936.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1876.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>18211.5</v>
       </c>
       <c r="H6" t="n">
         <v>24.722</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13430.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3470</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6214.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7609.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11994.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5809.3</v>
       </c>
       <c r="H10" t="n">
         <v>37.766</v>
@@ -1961,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>16861</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8459.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2733.4</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>12691.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>36659.9</v>
       </c>
       <c r="H12" t="n">
         <v>8.67</v>
@@ -2025,16 +2025,16 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23753.1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>23329.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4115.4</v>
       </c>
       <c r="H13" t="n">
         <v>51.298</v>
@@ -2060,13 +2060,13 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5648.4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>30009.3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>11647.1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11539.9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>42770.3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>16426.3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5613.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>25257.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>10972.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>14271.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2195.4</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24607.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5613.3</v>
       </c>
       <c r="H20" t="n">
         <v>6.048</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>23376.8</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>16246.1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>26111.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>18460.8</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>17929.6</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8742.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2480,13 +2480,13 @@
         <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10642.2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>21733.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>16123.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7220.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2550,13 +2550,13 @@
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5697.7</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>15236.2</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>28450.3</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>43943.2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>21305.6</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3158.4</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5685.8</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14231</v>
       </c>
       <c r="H32" t="n">
         <v>10.671</v>
@@ -2725,16 +2725,16 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2293.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3699.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>21331.3</v>
       </c>
       <c r="H33" t="n">
         <v>10.653</v>
@@ -2760,13 +2760,13 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7961.3</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>15868.3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>68</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14129.3</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>25498.7</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4568</v>
       </c>
       <c r="H35" t="n">
         <v>53.989</v>
@@ -2830,16 +2830,16 @@
         <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>39068.7</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>43568.4</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25144.3</v>
       </c>
       <c r="H36" t="n">
         <v>100.054</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19008.6</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>44981</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>90800.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2935,13 +2935,13 @@
         <v>73</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>23448.7</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>30487.1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>325.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>781.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>202.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>619.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>12919.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>721.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>7499.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>33941.9</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4336.9</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>13419.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3285,16 +3285,16 @@
         <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4737.4</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>19457.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>4254.2</v>
       </c>
       <c r="H49" t="n">
         <v>39.951</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>7895.1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>12162.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>42770.9</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5726.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>15974.9</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>10141.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>11426</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>8418.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3530.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>15221.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>10989.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>8703.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>61522.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3329.2</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>8190.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>17211.4</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>27851</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>12354.5</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>38240.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>33594.6</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3775,13 +3775,13 @@
         <v>102</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>17721.9</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5881</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>11794.7</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>18586.7</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>104</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>23974.1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>105</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>11842.1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>47955.3</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>32620.3</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>11752.7</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>22316.4</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         <v>109</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>12261.6</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>24892.3</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>110</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>21348.4</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -4125,16 +4125,16 @@
         <v>112</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>5219.9</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>19975.3</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>5195.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4160,16 +4160,16 @@
         <v>113</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>8071.1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>9890.7</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>14987.8</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>19379.3</v>
       </c>
       <c r="H74" t="n">
         <v>7.769</v>
@@ -4201,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>9630.5</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>8892</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4230,16 +4230,16 @@
         <v>115</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>16038.7</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5561.7</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>10599</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>15032.2</v>
       </c>
       <c r="H76" t="n">
         <v>100.769</v>
@@ -4265,16 +4265,16 @@
         <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>5737.4</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2954.3</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3780.1</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>20384.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>29301.7</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>24613</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>119</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>12129.9</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4202.7</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>10073.4</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>120</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>10627.9</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>9405.6</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4405,13 +4405,13 @@
         <v>121</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>14918.6</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>12198.4</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3801.2</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>25412.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>4026.9</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>5047.1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>3486.2</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>19484.4</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2653.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4615,16 +4615,16 @@
         <v>126</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>13269.3</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2472.8</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>6193.4</v>
       </c>
       <c r="H87" t="n">
         <v>66.2</v>
@@ -4650,16 +4650,16 @@
         <v>127</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>5408.6</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>10459.1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>7424.7</v>
       </c>
       <c r="H88" t="n">
         <v>40.627</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>14424.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>11120.4</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>24905.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>23402.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>21422.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>9452.5</v>
       </c>
       <c r="H93" t="n">
         <v>2.803</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>6137.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>20497.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>13434.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -5000,16 +5000,16 @@
         <v>139</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>29868.8</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>20740.5</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>27793.2</v>
       </c>
       <c r="H98" t="n">
         <v>42.738</v>
@@ -5035,16 +5035,16 @@
         <v>140</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>7521.3</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>6246</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>7143.6</v>
       </c>
       <c r="H99" t="n">
         <v>19.291</v>
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>12307.8</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>40033.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5105,16 +5105,16 @@
         <v>142</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>19662.8</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>19476.7</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>13597.2</v>
       </c>
       <c r="H101" t="n">
         <v>48.779</v>
@@ -5140,7 +5140,7 @@
         <v>144</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>28811.5</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>145</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>4894.4</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>146</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>10578.4</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>147</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>4847.1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5280,13 +5280,13 @@
         <v>148</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>6137.9</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5323.2</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -5315,13 +5315,13 @@
         <v>149</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>5954</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>5323.2</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>150</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>22588</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>151</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>152</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>15805</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>4177.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5496,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>7971.9</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>6534.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5531,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>11071.9</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>3337.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5566,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>18000.6</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>19030.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>12909.9</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>11218.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>14832.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>7600.6</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>5071.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>26259.7</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4671.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>31364.9</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>37927.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>45531.3</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>56562.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>37314.2</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>59851.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5846,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>15803.4</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>9263.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>29259.1</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>48887.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5916,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>14940</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>79636.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>11073.7</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>30257.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5986,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>27793.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -6021,10 +6021,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>830.1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>11890.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -6056,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>788.6</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>3139.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -6091,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>2528.5</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>523.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>42771.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>32601.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>47779.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -6231,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>619.5</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>3933.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -6266,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>3853.6</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>4040.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>12529.7</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>36443.7</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -6371,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>49535.4</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>6081.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>16039.1</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>116715.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>35949.1</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>25535.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>9388.6</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>21990.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>124019.4</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>21773.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>9792</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6581,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>44385.4</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>102870.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6616,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>23200.8</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>3875.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>55724.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>6750.9</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>70134.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>33335</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>18921.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>55883.8</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>32011.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6791,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>66508.4</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>12878.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>301.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>642.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>615.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>804.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1966.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>665.3</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>9986.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>7809.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>994.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>3155.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -7205,16 +7205,16 @@
         <v>212</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>5905.1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>3348.3</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4654.2</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>76525.3</v>
       </c>
       <c r="H161" t="n">
         <v>0.007</v>
@@ -7240,16 +7240,16 @@
         <v>213</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>12446.8</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>3348.3</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>27300.8</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>14004.9</v>
       </c>
       <c r="H162" t="n">
         <v>47.257</v>
@@ -7281,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>21148.7</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>40153.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7316,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>10978.6</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>29684.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>5448.7</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>5423.4</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>34267</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7380,16 +7380,16 @@
         <v>217</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>5905.1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>12910.7</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>18999.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7415,16 +7415,16 @@
         <v>218</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>13001.3</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>26763.7</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>12611.3</v>
       </c>
       <c r="H167" t="n">
         <v>73.623</v>
@@ -7450,16 +7450,16 @@
         <v>219</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>5146.1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>5448.7</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>15394.4</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>54449.1</v>
       </c>
       <c r="H168" t="n">
         <v>46.549</v>
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>5224.3</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>39945.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>12676</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>31836.4</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -7590,13 +7590,13 @@
         <v>224</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>4414.9</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>23602.2</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
         <v>225</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>7282.6</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>13694.5</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>38498.3</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>14860.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>16047.7</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>27073</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -7765,13 +7765,13 @@
         <v>229</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>3401.5</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>19277.8</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>31763.9</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>958.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -8045,16 +8045,16 @@
         <v>239</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>14980.6</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>4202.7</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>30718.7</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>31718.3</v>
       </c>
       <c r="H185" t="n">
         <v>41.344</v>
@@ -8080,16 +8080,16 @@
         <v>240</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>4691.7</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>4202.7</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>4990.8</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>15309.8</v>
       </c>
       <c r="H186" t="n">
         <v>46.202</v>
@@ -8115,16 +8115,16 @@
         <v>241</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>5272.4</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>6198.5</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>7245.7</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>6029.5</v>
       </c>
       <c r="H187" t="n">
         <v>23.065</v>
@@ -8150,7 +8150,7 @@
         <v>242</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>21304.8</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>16424.2</v>
       </c>
       <c r="H188" t="n">
         <v>27.723</v>
@@ -8185,16 +8185,16 @@
         <v>243</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>5642.9</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>6198.5</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>20957</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>29600.2</v>
       </c>
       <c r="H189" t="n">
         <v>43.939</v>
@@ -8226,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>41503.5</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>31677.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8255,16 +8255,16 @@
         <v>245</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>9682.3</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>11421.5</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>13079.7</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>11291.3</v>
       </c>
       <c r="H191" t="n">
         <v>0.392</v>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>717.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>3329.2</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1094.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>4913.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>717.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8646,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>3329.2</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>9594.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1094.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>3486.2</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>5751.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1094.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>2829.6</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>21443.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>44850.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8955,16 +8955,16 @@
         <v>267</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>6378.7</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>4718.1</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>7592.2</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>11580.6</v>
       </c>
       <c r="H211" t="n">
         <v>10.082</v>
@@ -8993,13 +8993,13 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>4084.7</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>893.9</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>10704</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -9031,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1002.4</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>14880.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>44427.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>5088.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>3602.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>26503.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>53216</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>22778.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9270,13 +9270,13 @@
         <v>277</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>4504</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>23155.2</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -9305,16 +9305,16 @@
         <v>278</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1817.1</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>12496.2</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2565.6</v>
       </c>
       <c r="H221" t="n">
         <v>62.031</v>
@@ -9340,16 +9340,16 @@
         <v>279</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>10183.6</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>10887.3</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>5012.5</v>
       </c>
       <c r="H222" t="n">
         <v>34.425</v>
@@ -9375,16 +9375,16 @@
         <v>280</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>2103.9</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>12340.7</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9410,16 +9410,16 @@
         <v>281</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>5022.9</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>4838.5</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>5226.3</v>
       </c>
       <c r="H224" t="n">
         <v>34.547</v>
@@ -9445,16 +9445,16 @@
         <v>282</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>7747.7</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>2954.3</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>27987.8</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>2209.4</v>
       </c>
       <c r="H225" t="n">
         <v>12.433</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>22748.7</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -9515,16 +9515,16 @@
         <v>285</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>23523.9</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>63727.6</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>6806.2</v>
       </c>
       <c r="H227" t="n">
         <v>87.258</v>
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>12668.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9585,16 +9585,16 @@
         <v>287</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>4020.2</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>8176.4</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>16688</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>54036.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9620,16 +9620,16 @@
         <v>288</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>6528.3</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1283.8</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>18654.8</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>47002.7</v>
       </c>
       <c r="H230" t="n">
         <v>22.43</v>
@@ -9661,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>4160.1</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>37496</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9690,7 +9690,7 @@
         <v>291</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>25493.7</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>292</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>35967.3</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -9760,13 +9760,13 @@
         <v>293</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>12770.6</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>20846.5</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>294</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>25626</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>6115</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -9833,13 +9833,13 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>1634.1</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1362</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>21532.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>10441</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9900,16 +9900,16 @@
         <v>298</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>765.6</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>243.4</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>32541.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>12296.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>19954.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -10005,16 +10005,16 @@
         <v>302</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>5198.7</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>3533</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>10633.5</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>53892.6</v>
       </c>
       <c r="H241" t="n">
         <v>21.671</v>
@@ -10040,13 +10040,13 @@
         <v>303</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>14011.9</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>13044.3</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -10081,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>5834</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>5261.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -10116,10 +10116,10 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>4588.5</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>4518.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -10145,16 +10145,16 @@
         <v>306</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>8135.4</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>5486.2</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>4553.2</v>
       </c>
       <c r="H245" t="n">
         <v>39.493</v>
@@ -10180,16 +10180,16 @@
         <v>307</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>3725.5</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>3533</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>4692.6</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>9071.6</v>
       </c>
       <c r="H246" t="n">
         <v>0.08</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>611.1</v>
       </c>
       <c r="H247" t="n">
         <v>0.688</v>
@@ -10256,10 +10256,10 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>592.9</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>3282.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>3251.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10326,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>12370.6</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>6573.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>7764.1</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>19505.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>19896.5</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>6487.7</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>12255.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10460,13 +10460,13 @@
         <v>317</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>2865.8</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>13803.6</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -10495,13 +10495,13 @@
         <v>318</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>5826</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>15571.6</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -10536,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>3922.1</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>13527.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>32786.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>2291.2</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>14190.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10641,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>6151.6</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1494.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1015.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1237.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>1086.1</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10775,16 +10775,16 @@
         <v>329</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>23208.2</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>20850.5</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>29550.5</v>
       </c>
       <c r="H263" t="n">
         <v>4.813</v>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>23584.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10845,13 +10845,13 @@
         <v>330</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>15332.2</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>23335.7</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>86488.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10915,16 +10915,16 @@
         <v>333</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>2088.8</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>15151.6</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>40007.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10950,16 +10950,16 @@
         <v>334</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>2115</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>339.9</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>37448.3</v>
       </c>
       <c r="H268" t="n">
         <v>2.832</v>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>52185.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>34094.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -11055,16 +11055,16 @@
         <v>337</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>2195.4</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>9079</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>27287</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>10191.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1226.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>739.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>59.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>5067</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>429.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>12189.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>44.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>348</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>2293.1</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>6217.1</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>27855.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>19033.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -11440,16 +11440,16 @@
         <v>350</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>2502.3</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>6217.1</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>43666.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11481,10 +11481,10 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>3892.5</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>37906</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>47668.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>4669.9</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>28031.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>5767.9</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -11615,13 +11615,13 @@
         <v>356</v>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>4166.1</v>
       </c>
       <c r="E287" t="n">
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>18980.6</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>4184.2</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>12392.1</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>4744.2</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>105.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>3104.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>2444.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>12519.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -12000,16 +12000,16 @@
         <v>368</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>2088.8</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>2292.2</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>20671</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>369</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>7999.4</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>13053.1</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>4954.9</v>
       </c>
       <c r="H299" t="n">
         <v>24.166</v>
@@ -12076,10 +12076,10 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>5902.7</v>
       </c>
       <c r="G300" t="n">
-        <v>0</v>
+        <v>13541.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
